--- a/xlsx/夏威夷语_intext.xlsx
+++ b/xlsx/夏威夷语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>夏威夷语</t>
   </si>
@@ -29,25 +29,25 @@
     <t>夏威夷州</t>
   </si>
   <si>
-    <t>政策_政策_美國_夏威夷语</t>
+    <t>政策_政策_美国_夏威夷语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷島</t>
+    <t>夏威夷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷群島</t>
+    <t>夏威夷群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%BF%83%E9%A6%AC%E4%BE%86-%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>核心馬來-玻里尼西亞語群</t>
+    <t>核心马来-玻里尼西亚语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_639-2</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B2%9B%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>南岛语系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87%E5%AD%97</t>
   </si>
   <si>
@@ -119,15 +116,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>夏威夷群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
@@ -137,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AF%AD</t>
@@ -149,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>瀕危語言</t>
+    <t>濒危语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -179,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門塞音</t>
+    <t>声门塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -227,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門音</t>
+    <t>声门音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E9%9F%B3</t>
@@ -251,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BF%E9%9F%B3</t>
   </si>
   <si>
-    <t>響音</t>
+    <t>响音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB%E4%BA%BA%E7%A8%B1%E4%BB%A3%E8%A9%9E</t>
   </si>
   <si>
-    <t>南島語系人稱代詞</t>
+    <t>南岛语系人称代词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E6%95%B0</t>
@@ -305,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://haw.wikipedia.org/wiki/</t>
@@ -317,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>民族語</t>
+    <t>民族语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Maui</t>
@@ -353,25 +344,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟語</t>
+    <t>斐济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟印地語</t>
+    <t>斐济印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A5%BF%E8%AA%9E</t>
   </si>
   <si>
-    <t>他加祿語</t>
+    <t>他加禄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>吉里巴斯語</t>
+    <t>吉里巴斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E8%AF%AD</t>
@@ -395,19 +386,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>帕勞語</t>
+    <t>帕劳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩摩亞語</t>
+    <t>萨摩亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>湯加語</t>
+    <t>汤加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2%E8%AF%AD</t>
@@ -419,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>境外領土</t>
+    <t>境外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BA%AA%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>大溪地語</t>
+    <t>大溪地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BD%97%E8%AF%AD</t>
@@ -449,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾福克語</t>
+    <t>诺福克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E8%82%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>皮特肯語</t>
+    <t>皮特肯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3%E8%AF%AD</t>
@@ -467,25 +458,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>高加索語言</t>
+    <t>高加索语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E8%8C%B2%E9%87%91%E8%AA%9E</t>
   </si>
   <si>
-    <t>列茲金語</t>
+    <t>列兹金语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BA%AB%E5%85%B6%E9%98%BF%E8%BF%AA%E6%A0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>哈庫其阿迪格語</t>
+    <t>哈库其阿迪格语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E6%A0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿迪格語</t>
+    <t>阿迪格语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%AB%98%E5%8A%A0%E7%B4%A2%E8%AF%AD%E7%B3%BB</t>
@@ -503,61 +494,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>南島語族</t>
+    <t>南岛语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>台灣原住民族</t>
+    <t>台湾原住民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%82%A3%E5%8D%A1%E9%82%A3%E5%AF%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>卡那卡那富語</t>
+    <t>卡那卡那富语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B6%E5%93%88%E5%B7%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>噶哈巫語</t>
+    <t>噶哈巫语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B6%E7%91%AA%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>噶瑪蘭語</t>
+    <t>噶玛兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%AE%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>巴宰語</t>
+    <t>巴宰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%A5%87%E8%90%8A%E9%9B%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>撒奇萊雅語</t>
+    <t>撒奇莱雅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%98%BF%E9%AD%AF%E5%93%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉阿魯哇語</t>
+    <t>拉阿鲁哇语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%A4%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>賽夏語</t>
+    <t>赛夏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>邵語</t>
+    <t>邵语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -575,61 +566,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E8%AA%9E</t>
   </si>
   <si>
-    <t>琉球語</t>
+    <t>琉球语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E9%87%8D%E5%B1%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>八重山語</t>
+    <t>八重山语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E6%B0%B8%E8%89%AF%E9%83%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>沖永良部語</t>
+    <t>冲永良部语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E8%AB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>與論語</t>
+    <t>与论语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E9%82%A3%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>與那國語</t>
+    <t>与那国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>沖繩語</t>
+    <t>冲绳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%A0%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>國頭語</t>
+    <t>国头语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%84%E7%BE%8E%E8%AA%9E</t>
   </si>
   <si>
-    <t>奄美語</t>
+    <t>奄美语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%8F%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>宮古語</t>
+    <t>宫古语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
+    <t>汉藏语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%B2%9B%E8%AF%AD</t>
@@ -641,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E4%BE%97%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>壯侗語系</t>
+    <t>壮侗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%BD%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>木佬語</t>
+    <t>木佬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>阿爾泰語系</t>
+    <t>阿尔泰语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E8%AF%AD</t>
@@ -665,19 +656,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港手語</t>
+    <t>香港手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%8A%E5%8A%AA%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿伊努語</t>
+    <t>阿伊努语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E4%B8%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>八丈語</t>
+    <t>八丈语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%8A%81%E5%9C%9F%E5%B0%94%E5%85%8B%E8%AF%AD</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%92%E8%AA%9E</t>
   </si>
   <si>
-    <t>愒語</t>
+    <t>愒语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9A%E5%B8%95%E6%B6%85%E7%A7%91%E8%AF%AD</t>
@@ -707,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9E%97%E5%90%89%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>特林吉特語</t>
+    <t>特林吉特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%88%A9%E4%BA%9E-%E7%BE%85%E9%A6%AC%E6%B6%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>艾米利亞-羅馬涅語</t>
+    <t>艾米利亚-罗马涅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%AE%B6%E8%AF%AD</t>
@@ -731,19 +722,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%88%BE%E9%AD%81%E6%A2%85%E6%9E%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>哈爾魁梅林語</t>
+    <t>哈尔魁梅林语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%BE%85%E5%B0%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>圖羅尤語</t>
+    <t>图罗尤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1523,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1558,10 +1549,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1616,10 +1607,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1645,10 +1636,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1674,10 +1665,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1703,10 +1694,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1732,10 +1723,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1761,10 +1752,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1790,10 +1781,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1819,10 +1810,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1848,10 +1839,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1877,10 +1868,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1906,10 +1897,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1935,10 +1926,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1964,10 +1955,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1993,10 +1984,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2022,10 +2013,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2051,10 +2042,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2080,10 +2071,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2109,10 +2100,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2138,10 +2129,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2167,10 +2158,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2196,10 +2187,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2225,10 +2216,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2254,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2283,10 +2274,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2312,10 +2303,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2341,10 +2332,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2370,10 +2361,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2399,10 +2390,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2428,10 +2419,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2457,10 +2448,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2486,10 +2477,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2515,10 +2506,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2544,10 +2535,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2573,10 +2564,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2602,10 +2593,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2631,10 +2622,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2660,10 +2651,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2689,10 +2680,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2718,10 +2709,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2747,10 +2738,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2776,10 +2767,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2805,10 +2796,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2834,10 +2825,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2863,10 +2854,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2892,10 +2883,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2921,10 +2912,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2950,10 +2941,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2979,10 +2970,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3008,10 +2999,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3037,10 +3028,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3066,10 +3057,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3095,10 +3086,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3124,10 +3115,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3153,10 +3144,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3182,10 +3173,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3211,10 +3202,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3240,10 +3231,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3269,10 +3260,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3298,10 +3289,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3327,10 +3318,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3356,10 +3347,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3385,10 +3376,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3414,10 +3405,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3443,10 +3434,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3472,10 +3463,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3501,10 +3492,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3530,10 +3521,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3559,10 +3550,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3588,10 +3579,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3617,10 +3608,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3646,10 +3637,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3675,10 +3666,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3704,10 +3695,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3733,10 +3724,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3762,10 +3753,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3791,10 +3782,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3820,10 +3811,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3849,10 +3840,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3878,10 +3869,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3907,10 +3898,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3936,10 +3927,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3965,10 +3956,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3994,10 +3985,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4023,10 +4014,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4052,10 +4043,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4081,10 +4072,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4110,10 +4101,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4139,10 +4130,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4168,10 +4159,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4197,10 +4188,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4226,10 +4217,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4255,10 +4246,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4284,10 +4275,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4313,10 +4304,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4342,10 +4333,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4371,10 +4362,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4400,10 +4391,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4429,10 +4420,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4458,10 +4449,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4487,10 +4478,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4516,10 +4507,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4545,10 +4536,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4574,10 +4565,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4603,10 +4594,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4632,10 +4623,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4661,10 +4652,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4690,10 +4681,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4719,10 +4710,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
